--- a/natmiOut/OldD4/LR-pairs_lrc2p/Agrn-Dag1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Agrn-Dag1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.4070384101429</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H2">
-        <v>14.4070384101429</v>
+        <v>55.316057</v>
       </c>
       <c r="I2">
-        <v>0.2938113350798117</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J2">
-        <v>0.2938113350798117</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0811241083896</v>
+        <v>18.91686333333334</v>
       </c>
       <c r="N2">
-        <v>17.0811241083896</v>
+        <v>56.75059</v>
       </c>
       <c r="O2">
-        <v>0.1227083427045537</v>
+        <v>0.1307094812119195</v>
       </c>
       <c r="P2">
-        <v>0.1227083427045537</v>
+        <v>0.1618499242031174</v>
       </c>
       <c r="Q2">
-        <v>246.0884111179868</v>
+        <v>348.8020968026256</v>
       </c>
       <c r="R2">
-        <v>246.0884111179868</v>
+        <v>3139.21887122363</v>
       </c>
       <c r="S2">
-        <v>0.03605310199545599</v>
+        <v>0.04161598087534462</v>
       </c>
       <c r="T2">
-        <v>0.03605310199545599</v>
+        <v>0.05637839264254121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.4070384101429</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H3">
-        <v>14.4070384101429</v>
+        <v>55.316057</v>
       </c>
       <c r="I3">
-        <v>0.2938113350798117</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J3">
-        <v>0.2938113350798117</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.7068969381702</v>
+        <v>30.812519</v>
       </c>
       <c r="N3">
-        <v>28.7068969381702</v>
+        <v>92.437557</v>
       </c>
       <c r="O3">
-        <v>0.2062262252250212</v>
+        <v>0.2129046609025076</v>
       </c>
       <c r="P3">
-        <v>0.2062262252250212</v>
+        <v>0.2636274194501123</v>
       </c>
       <c r="Q3">
-        <v>413.5813668242317</v>
+        <v>568.1423524391944</v>
       </c>
       <c r="R3">
-        <v>413.5813668242317</v>
+        <v>5113.281171952749</v>
       </c>
       <c r="S3">
-        <v>0.06059160256183341</v>
+        <v>0.06778572001234838</v>
       </c>
       <c r="T3">
-        <v>0.06059160256183341</v>
+        <v>0.09183130754170632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.4070384101429</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H4">
-        <v>14.4070384101429</v>
+        <v>55.316057</v>
       </c>
       <c r="I4">
-        <v>0.2938113350798117</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J4">
-        <v>0.2938113350798117</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.59120512106334</v>
+        <v>5.973992333333332</v>
       </c>
       <c r="N4">
-        <v>5.59120512106334</v>
+        <v>17.921977</v>
       </c>
       <c r="O4">
-        <v>0.04016641467934279</v>
+        <v>0.04127837818006743</v>
       </c>
       <c r="P4">
-        <v>0.04016641467934279</v>
+        <v>0.05111260727016254</v>
       </c>
       <c r="Q4">
-        <v>80.55270693814722</v>
+        <v>110.1525668094099</v>
       </c>
       <c r="R4">
-        <v>80.55270693814722</v>
+        <v>991.3731012846889</v>
       </c>
       <c r="S4">
-        <v>0.01180134792230705</v>
+        <v>0.01314242992152797</v>
       </c>
       <c r="T4">
-        <v>0.01180134792230705</v>
+        <v>0.01780443615188129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.4070384101429</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H5">
-        <v>14.4070384101429</v>
+        <v>55.316057</v>
       </c>
       <c r="I5">
-        <v>0.2938113350798117</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J5">
-        <v>0.2938113350798117</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.2201154562181</v>
+        <v>5.484752333333333</v>
       </c>
       <c r="N5">
-        <v>5.2201154562181</v>
+        <v>16.454257</v>
       </c>
       <c r="O5">
-        <v>0.03750055981645456</v>
+        <v>0.03789788610475406</v>
       </c>
       <c r="P5">
-        <v>0.03750055981645456</v>
+        <v>0.04692674117165327</v>
       </c>
       <c r="Q5">
-        <v>75.20640388311479</v>
+        <v>101.1316242338499</v>
       </c>
       <c r="R5">
-        <v>75.20640388311479</v>
+        <v>910.184618104649</v>
       </c>
       <c r="S5">
-        <v>0.01101808954591285</v>
+        <v>0.01206613084780273</v>
       </c>
       <c r="T5">
-        <v>0.01101808954591285</v>
+        <v>0.01634634215762835</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.4070384101429</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H6">
-        <v>14.4070384101429</v>
+        <v>55.316057</v>
       </c>
       <c r="I6">
-        <v>0.2938113350798117</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J6">
-        <v>0.2938113350798117</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>82.60165915502201</v>
+        <v>83.5363655</v>
       </c>
       <c r="N6">
-        <v>82.60165915502201</v>
+        <v>167.072731</v>
       </c>
       <c r="O6">
-        <v>0.5933984575746277</v>
+        <v>0.5772095936007515</v>
       </c>
       <c r="P6">
-        <v>0.5933984575746277</v>
+        <v>0.4764833079049545</v>
       </c>
       <c r="Q6">
-        <v>1190.045276187934</v>
+        <v>1540.300785190278</v>
       </c>
       <c r="R6">
-        <v>1190.045276187934</v>
+        <v>9241.804711141667</v>
       </c>
       <c r="S6">
-        <v>0.1743471930543024</v>
+        <v>0.1837750650192605</v>
       </c>
       <c r="T6">
-        <v>0.1743471930543024</v>
+        <v>0.1659769885772054</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.0494712063533</v>
+        <v>16.845061</v>
       </c>
       <c r="H7">
-        <v>15.0494712063533</v>
+        <v>50.535183</v>
       </c>
       <c r="I7">
-        <v>0.3069128506154923</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J7">
-        <v>0.3069128506154923</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.0811241083896</v>
+        <v>18.91686333333334</v>
       </c>
       <c r="N7">
-        <v>17.0811241083896</v>
+        <v>56.75059</v>
       </c>
       <c r="O7">
-        <v>0.1227083427045537</v>
+        <v>0.1307094812119195</v>
       </c>
       <c r="P7">
-        <v>0.1227083427045537</v>
+        <v>0.1618499242031174</v>
       </c>
       <c r="Q7">
-        <v>257.0618854413564</v>
+        <v>318.6557167786634</v>
       </c>
       <c r="R7">
-        <v>257.0618854413564</v>
+        <v>2867.901451007971</v>
       </c>
       <c r="S7">
-        <v>0.03766076725375732</v>
+        <v>0.03801918146949701</v>
       </c>
       <c r="T7">
-        <v>0.03766076725375732</v>
+        <v>0.05150570275528991</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.0494712063533</v>
+        <v>16.845061</v>
       </c>
       <c r="H8">
-        <v>15.0494712063533</v>
+        <v>50.535183</v>
       </c>
       <c r="I8">
-        <v>0.3069128506154923</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J8">
-        <v>0.3069128506154923</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.7068969381702</v>
+        <v>30.812519</v>
       </c>
       <c r="N8">
-        <v>28.7068969381702</v>
+        <v>92.437557</v>
       </c>
       <c r="O8">
-        <v>0.2062262252250212</v>
+        <v>0.2129046609025076</v>
       </c>
       <c r="P8">
-        <v>0.2062262252250212</v>
+        <v>0.2636274194501123</v>
       </c>
       <c r="Q8">
-        <v>432.0236188947441</v>
+        <v>519.038762118659</v>
       </c>
       <c r="R8">
-        <v>432.0236188947441</v>
+        <v>4671.348859067931</v>
       </c>
       <c r="S8">
-        <v>0.06329347865548378</v>
+        <v>0.06192711395916718</v>
       </c>
       <c r="T8">
-        <v>0.06329347865548378</v>
+        <v>0.08389448170084518</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.0494712063533</v>
+        <v>16.845061</v>
       </c>
       <c r="H9">
-        <v>15.0494712063533</v>
+        <v>50.535183</v>
       </c>
       <c r="I9">
-        <v>0.3069128506154923</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J9">
-        <v>0.3069128506154923</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.59120512106334</v>
+        <v>5.973992333333332</v>
       </c>
       <c r="N9">
-        <v>5.59120512106334</v>
+        <v>17.921977</v>
       </c>
       <c r="O9">
-        <v>0.04016641467934279</v>
+        <v>0.04127837818006743</v>
       </c>
       <c r="P9">
-        <v>0.04016641467934279</v>
+        <v>0.05111260727016254</v>
       </c>
       <c r="Q9">
-        <v>84.14468047825785</v>
+        <v>100.6322652685323</v>
       </c>
       <c r="R9">
-        <v>84.14468047825785</v>
+        <v>905.6903874167909</v>
       </c>
       <c r="S9">
-        <v>0.01232758882824105</v>
+        <v>0.01200655175312101</v>
       </c>
       <c r="T9">
-        <v>0.01232758882824105</v>
+        <v>0.01626562860666545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.0494712063533</v>
+        <v>16.845061</v>
       </c>
       <c r="H10">
-        <v>15.0494712063533</v>
+        <v>50.535183</v>
       </c>
       <c r="I10">
-        <v>0.3069128506154923</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J10">
-        <v>0.3069128506154923</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.2201154562181</v>
+        <v>5.484752333333333</v>
       </c>
       <c r="N10">
-        <v>5.2201154562181</v>
+        <v>16.454257</v>
       </c>
       <c r="O10">
-        <v>0.03750055981645456</v>
+        <v>0.03789788610475406</v>
       </c>
       <c r="P10">
-        <v>0.03750055981645456</v>
+        <v>0.04692674117165327</v>
       </c>
       <c r="Q10">
-        <v>78.5599772521941</v>
+        <v>92.39098762489233</v>
       </c>
       <c r="R10">
-        <v>78.5599772521941</v>
+        <v>831.518888624031</v>
       </c>
       <c r="S10">
-        <v>0.01150940371294485</v>
+        <v>0.01102327540257716</v>
       </c>
       <c r="T10">
-        <v>0.01150940371294485</v>
+        <v>0.01493355523001872</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.0494712063533</v>
+        <v>16.845061</v>
       </c>
       <c r="H11">
-        <v>15.0494712063533</v>
+        <v>50.535183</v>
       </c>
       <c r="I11">
-        <v>0.3069128506154923</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J11">
-        <v>0.3069128506154923</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>82.60165915502201</v>
+        <v>83.5363655</v>
       </c>
       <c r="N11">
-        <v>82.60165915502201</v>
+        <v>167.072731</v>
       </c>
       <c r="O11">
-        <v>0.5933984575746277</v>
+        <v>0.5772095936007515</v>
       </c>
       <c r="P11">
-        <v>0.5933984575746277</v>
+        <v>0.4764833079049545</v>
       </c>
       <c r="Q11">
-        <v>1243.111291050513</v>
+        <v>1407.175172565796</v>
       </c>
       <c r="R11">
-        <v>1243.111291050513</v>
+        <v>8443.051035394774</v>
       </c>
       <c r="S11">
-        <v>0.1821216121650653</v>
+        <v>0.1678916944782458</v>
       </c>
       <c r="T11">
-        <v>0.1821216121650653</v>
+        <v>0.1516318759223562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.42942455136514</v>
+        <v>4.767255333333333</v>
       </c>
       <c r="H12">
-        <v>2.42942455136514</v>
+        <v>14.301766</v>
       </c>
       <c r="I12">
-        <v>0.04954470520532085</v>
+        <v>0.08231737196954897</v>
       </c>
       <c r="J12">
-        <v>0.04954470520532085</v>
+        <v>0.09006138928307221</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.0811241083896</v>
+        <v>18.91686333333334</v>
       </c>
       <c r="N12">
-        <v>17.0811241083896</v>
+        <v>56.75059</v>
       </c>
       <c r="O12">
-        <v>0.1227083427045537</v>
+        <v>0.1307094812119195</v>
       </c>
       <c r="P12">
-        <v>0.1227083427045537</v>
+        <v>0.1618499242031174</v>
       </c>
       <c r="Q12">
-        <v>41.49730227383667</v>
+        <v>90.18151761577111</v>
       </c>
       <c r="R12">
-        <v>41.49730227383667</v>
+        <v>811.63365854194</v>
       </c>
       <c r="S12">
-        <v>0.006079548665530597</v>
+        <v>0.01075966098486835</v>
       </c>
       <c r="T12">
-        <v>0.006079548665530597</v>
+        <v>0.01457642902909269</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.42942455136514</v>
+        <v>4.767255333333333</v>
       </c>
       <c r="H13">
-        <v>2.42942455136514</v>
+        <v>14.301766</v>
       </c>
       <c r="I13">
-        <v>0.04954470520532085</v>
+        <v>0.08231737196954897</v>
       </c>
       <c r="J13">
-        <v>0.04954470520532085</v>
+        <v>0.09006138928307221</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.7068969381702</v>
+        <v>30.812519</v>
       </c>
       <c r="N13">
-        <v>28.7068969381702</v>
+        <v>92.437557</v>
       </c>
       <c r="O13">
-        <v>0.2062262252250212</v>
+        <v>0.2129046609025076</v>
       </c>
       <c r="P13">
-        <v>0.2062262252250212</v>
+        <v>0.2636274194501123</v>
       </c>
       <c r="Q13">
-        <v>69.74124021509944</v>
+        <v>146.8911455361846</v>
       </c>
       <c r="R13">
-        <v>69.74124021509944</v>
+        <v>1322.020309825662</v>
       </c>
       <c r="S13">
-        <v>0.01021741753437978</v>
+        <v>0.01752575216556241</v>
       </c>
       <c r="T13">
-        <v>0.01021741753437978</v>
+        <v>0.02374265164878832</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.42942455136514</v>
+        <v>4.767255333333333</v>
       </c>
       <c r="H14">
-        <v>2.42942455136514</v>
+        <v>14.301766</v>
       </c>
       <c r="I14">
-        <v>0.04954470520532085</v>
+        <v>0.08231737196954897</v>
       </c>
       <c r="J14">
-        <v>0.04954470520532085</v>
+        <v>0.09006138928307221</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.59120512106334</v>
+        <v>5.973992333333332</v>
       </c>
       <c r="N14">
-        <v>5.59120512106334</v>
+        <v>17.921977</v>
       </c>
       <c r="O14">
-        <v>0.04016641467934279</v>
+        <v>0.04127837818006743</v>
       </c>
       <c r="P14">
-        <v>0.04016641467934279</v>
+        <v>0.05111260727016254</v>
       </c>
       <c r="Q14">
-        <v>13.58341099282978</v>
+        <v>28.47954681237577</v>
       </c>
       <c r="R14">
-        <v>13.58341099282978</v>
+        <v>256.3159213113819</v>
       </c>
       <c r="S14">
-        <v>0.001990033174442711</v>
+        <v>0.003397927610948325</v>
       </c>
       <c r="T14">
-        <v>0.001990033174442711</v>
+        <v>0.004603272420630896</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.42942455136514</v>
+        <v>4.767255333333333</v>
       </c>
       <c r="H15">
-        <v>2.42942455136514</v>
+        <v>14.301766</v>
       </c>
       <c r="I15">
-        <v>0.04954470520532085</v>
+        <v>0.08231737196954897</v>
       </c>
       <c r="J15">
-        <v>0.04954470520532085</v>
+        <v>0.09006138928307221</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.2201154562181</v>
+        <v>5.484752333333333</v>
       </c>
       <c r="N15">
-        <v>5.2201154562181</v>
+        <v>16.454257</v>
       </c>
       <c r="O15">
-        <v>0.03750055981645456</v>
+        <v>0.03789788610475406</v>
       </c>
       <c r="P15">
-        <v>0.03750055981645456</v>
+        <v>0.04692674117165327</v>
       </c>
       <c r="Q15">
-        <v>12.68187665029689</v>
+        <v>26.14721481309577</v>
       </c>
       <c r="R15">
-        <v>12.68187665029689</v>
+        <v>235.324933317862</v>
       </c>
       <c r="S15">
-        <v>0.001857954181140742</v>
+        <v>0.003119654387344641</v>
       </c>
       <c r="T15">
-        <v>0.001857954181140742</v>
+        <v>0.004226287504446237</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.42942455136514</v>
+        <v>4.767255333333333</v>
       </c>
       <c r="H16">
-        <v>2.42942455136514</v>
+        <v>14.301766</v>
       </c>
       <c r="I16">
-        <v>0.04954470520532085</v>
+        <v>0.08231737196954897</v>
       </c>
       <c r="J16">
-        <v>0.04954470520532085</v>
+        <v>0.09006138928307221</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>82.60165915502201</v>
+        <v>83.5363655</v>
       </c>
       <c r="N16">
-        <v>82.60165915502201</v>
+        <v>167.072731</v>
       </c>
       <c r="O16">
-        <v>0.5933984575746277</v>
+        <v>0.5772095936007515</v>
       </c>
       <c r="P16">
-        <v>0.5933984575746277</v>
+        <v>0.4764833079049545</v>
       </c>
       <c r="Q16">
-        <v>200.6744987347055</v>
+        <v>398.2391839571576</v>
       </c>
       <c r="R16">
-        <v>200.6744987347055</v>
+        <v>2389.435103742946</v>
       </c>
       <c r="S16">
-        <v>0.02939975164982702</v>
+        <v>0.04751437682082526</v>
       </c>
       <c r="T16">
-        <v>0.02939975164982702</v>
+        <v>0.04291274868011406</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.87287020472695</v>
+        <v>2.922963333333333</v>
       </c>
       <c r="H17">
-        <v>2.87287020472695</v>
+        <v>8.768889999999999</v>
       </c>
       <c r="I17">
-        <v>0.05858815714460672</v>
+        <v>0.05047152777426636</v>
       </c>
       <c r="J17">
-        <v>0.05858815714460672</v>
+        <v>0.05521964321542102</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.0811241083896</v>
+        <v>18.91686333333334</v>
       </c>
       <c r="N17">
-        <v>17.0811241083896</v>
+        <v>56.75059</v>
       </c>
       <c r="O17">
-        <v>0.1227083427045537</v>
+        <v>0.1307094812119195</v>
       </c>
       <c r="P17">
-        <v>0.1227083427045537</v>
+        <v>0.1618499242031174</v>
       </c>
       <c r="Q17">
-        <v>49.07185251423567</v>
+        <v>55.29329790501112</v>
       </c>
       <c r="R17">
-        <v>49.07185251423567</v>
+        <v>497.6396811451</v>
       </c>
       <c r="S17">
-        <v>0.007189255665328647</v>
+        <v>0.006597107211347342</v>
       </c>
       <c r="T17">
-        <v>0.007189255665328647</v>
+        <v>0.00893729506893908</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.87287020472695</v>
+        <v>2.922963333333333</v>
       </c>
       <c r="H18">
-        <v>2.87287020472695</v>
+        <v>8.768889999999999</v>
       </c>
       <c r="I18">
-        <v>0.05858815714460672</v>
+        <v>0.05047152777426636</v>
       </c>
       <c r="J18">
-        <v>0.05858815714460672</v>
+        <v>0.05521964321542102</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.7068969381702</v>
+        <v>30.812519</v>
       </c>
       <c r="N18">
-        <v>28.7068969381702</v>
+        <v>92.437557</v>
       </c>
       <c r="O18">
-        <v>0.2062262252250212</v>
+        <v>0.2129046609025076</v>
       </c>
       <c r="P18">
-        <v>0.2062262252250212</v>
+        <v>0.2636274194501123</v>
       </c>
       <c r="Q18">
-        <v>82.47118888383648</v>
+        <v>90.06386324463665</v>
       </c>
       <c r="R18">
-        <v>82.47118888383648</v>
+        <v>810.5747692017299</v>
       </c>
       <c r="S18">
-        <v>0.0120824144908226</v>
+        <v>0.01074562350601167</v>
       </c>
       <c r="T18">
-        <v>0.0120824144908226</v>
+        <v>0.01455741204383734</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.87287020472695</v>
+        <v>2.922963333333333</v>
       </c>
       <c r="H19">
-        <v>2.87287020472695</v>
+        <v>8.768889999999999</v>
       </c>
       <c r="I19">
-        <v>0.05858815714460672</v>
+        <v>0.05047152777426636</v>
       </c>
       <c r="J19">
-        <v>0.05858815714460672</v>
+        <v>0.05521964321542102</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.59120512106334</v>
+        <v>5.973992333333332</v>
       </c>
       <c r="N19">
-        <v>5.59120512106334</v>
+        <v>17.921977</v>
       </c>
       <c r="O19">
-        <v>0.04016641467934279</v>
+        <v>0.04127837818006743</v>
       </c>
       <c r="P19">
-        <v>0.04016641467934279</v>
+        <v>0.05111260727016254</v>
       </c>
       <c r="Q19">
-        <v>16.06280660081961</v>
+        <v>17.46176054394778</v>
       </c>
       <c r="R19">
-        <v>16.06280660081961</v>
+        <v>157.15584489553</v>
       </c>
       <c r="S19">
-        <v>0.002353276215168773</v>
+        <v>0.002083382810791944</v>
       </c>
       <c r="T19">
-        <v>0.002353276215168773</v>
+        <v>0.00282241993726831</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.87287020472695</v>
+        <v>2.922963333333333</v>
       </c>
       <c r="H20">
-        <v>2.87287020472695</v>
+        <v>8.768889999999999</v>
       </c>
       <c r="I20">
-        <v>0.05858815714460672</v>
+        <v>0.05047152777426636</v>
       </c>
       <c r="J20">
-        <v>0.05858815714460672</v>
+        <v>0.05521964321542102</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.2201154562181</v>
+        <v>5.484752333333333</v>
       </c>
       <c r="N20">
-        <v>5.2201154562181</v>
+        <v>16.454257</v>
       </c>
       <c r="O20">
-        <v>0.03750055981645456</v>
+        <v>0.03789788610475406</v>
       </c>
       <c r="P20">
-        <v>0.03750055981645456</v>
+        <v>0.04692674117165327</v>
       </c>
       <c r="Q20">
-        <v>14.99671415940361</v>
+        <v>16.03172996274778</v>
       </c>
       <c r="R20">
-        <v>14.99671415940361</v>
+        <v>144.28556966473</v>
       </c>
       <c r="S20">
-        <v>0.002197088691537164</v>
+        <v>0.001912764211122078</v>
       </c>
       <c r="T20">
-        <v>0.002197088691537164</v>
+        <v>0.002591277904761102</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.87287020472695</v>
+        <v>2.922963333333333</v>
       </c>
       <c r="H21">
-        <v>2.87287020472695</v>
+        <v>8.768889999999999</v>
       </c>
       <c r="I21">
-        <v>0.05858815714460672</v>
+        <v>0.05047152777426636</v>
       </c>
       <c r="J21">
-        <v>0.05858815714460672</v>
+        <v>0.05521964321542102</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>82.60165915502201</v>
+        <v>83.5363655</v>
       </c>
       <c r="N21">
-        <v>82.60165915502201</v>
+        <v>167.072731</v>
       </c>
       <c r="O21">
-        <v>0.5933984575746277</v>
+        <v>0.5772095936007515</v>
       </c>
       <c r="P21">
-        <v>0.5933984575746277</v>
+        <v>0.4764833079049545</v>
       </c>
       <c r="Q21">
-        <v>237.3038454474738</v>
+        <v>244.1737333564317</v>
       </c>
       <c r="R21">
-        <v>237.3038454474738</v>
+        <v>1465.04240013859</v>
       </c>
       <c r="S21">
-        <v>0.03476612208174953</v>
+        <v>0.02913265003499333</v>
       </c>
       <c r="T21">
-        <v>0.03476612208174953</v>
+        <v>0.02631123826061518</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.2761942472891</v>
+        <v>14.9391485</v>
       </c>
       <c r="H22">
-        <v>14.2761942472891</v>
+        <v>29.878297</v>
       </c>
       <c r="I22">
-        <v>0.2911429519547685</v>
+        <v>0.2579579565172923</v>
       </c>
       <c r="J22">
-        <v>0.2911429519547685</v>
+        <v>0.1881502562153687</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.0811241083896</v>
+        <v>18.91686333333334</v>
       </c>
       <c r="N22">
-        <v>17.0811241083896</v>
+        <v>56.75059</v>
       </c>
       <c r="O22">
-        <v>0.1227083427045537</v>
+        <v>0.1307094812119195</v>
       </c>
       <c r="P22">
-        <v>0.1227083427045537</v>
+        <v>0.1618499242031174</v>
       </c>
       <c r="Q22">
-        <v>243.8534457334227</v>
+        <v>282.6018304908717</v>
       </c>
       <c r="R22">
-        <v>243.8534457334227</v>
+        <v>1695.61098294523</v>
       </c>
       <c r="S22">
-        <v>0.03572566912448114</v>
+        <v>0.03371755067086216</v>
       </c>
       <c r="T22">
-        <v>0.03572566912448114</v>
+        <v>0.03045210470725455</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.2761942472891</v>
+        <v>14.9391485</v>
       </c>
       <c r="H23">
-        <v>14.2761942472891</v>
+        <v>29.878297</v>
       </c>
       <c r="I23">
-        <v>0.2911429519547685</v>
+        <v>0.2579579565172923</v>
       </c>
       <c r="J23">
-        <v>0.2911429519547685</v>
+        <v>0.1881502562153687</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>28.7068969381702</v>
+        <v>30.812519</v>
       </c>
       <c r="N23">
-        <v>28.7068969381702</v>
+        <v>92.437557</v>
       </c>
       <c r="O23">
-        <v>0.2062262252250212</v>
+        <v>0.2129046609025076</v>
       </c>
       <c r="P23">
-        <v>0.2062262252250212</v>
+        <v>0.2636274194501123</v>
       </c>
       <c r="Q23">
-        <v>409.8252369262265</v>
+        <v>460.3127970000715</v>
       </c>
       <c r="R23">
-        <v>409.8252369262265</v>
+        <v>2761.876782000429</v>
       </c>
       <c r="S23">
-        <v>0.06004131198250159</v>
+        <v>0.0549204512594179</v>
       </c>
       <c r="T23">
-        <v>0.06004131198250159</v>
+        <v>0.04960156651493509</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.2761942472891</v>
+        <v>14.9391485</v>
       </c>
       <c r="H24">
-        <v>14.2761942472891</v>
+        <v>29.878297</v>
       </c>
       <c r="I24">
-        <v>0.2911429519547685</v>
+        <v>0.2579579565172923</v>
       </c>
       <c r="J24">
-        <v>0.2911429519547685</v>
+        <v>0.1881502562153687</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.59120512106334</v>
+        <v>5.973992333333332</v>
       </c>
       <c r="N24">
-        <v>5.59120512106334</v>
+        <v>17.921977</v>
       </c>
       <c r="O24">
-        <v>0.04016641467934279</v>
+        <v>0.04127837818006743</v>
       </c>
       <c r="P24">
-        <v>0.04016641467934279</v>
+        <v>0.05111260727016254</v>
       </c>
       <c r="Q24">
-        <v>79.82113038473781</v>
+        <v>89.24635860552816</v>
       </c>
       <c r="R24">
-        <v>79.82113038473781</v>
+        <v>535.478151633169</v>
       </c>
       <c r="S24">
-        <v>0.0116941685391832</v>
+        <v>0.01064808608367818</v>
       </c>
       <c r="T24">
-        <v>0.0116941685391832</v>
+        <v>0.009616850153716598</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.2761942472891</v>
+        <v>14.9391485</v>
       </c>
       <c r="H25">
-        <v>14.2761942472891</v>
+        <v>29.878297</v>
       </c>
       <c r="I25">
-        <v>0.2911429519547685</v>
+        <v>0.2579579565172923</v>
       </c>
       <c r="J25">
-        <v>0.2911429519547685</v>
+        <v>0.1881502562153687</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.2201154562181</v>
+        <v>5.484752333333333</v>
       </c>
       <c r="N25">
-        <v>5.2201154562181</v>
+        <v>16.454257</v>
       </c>
       <c r="O25">
-        <v>0.03750055981645456</v>
+        <v>0.03789788610475406</v>
       </c>
       <c r="P25">
-        <v>0.03750055981645456</v>
+        <v>0.04692674117165327</v>
       </c>
       <c r="Q25">
-        <v>74.52338224624575</v>
+        <v>81.93752959338816</v>
       </c>
       <c r="R25">
-        <v>74.52338224624575</v>
+        <v>491.625177560329</v>
       </c>
       <c r="S25">
-        <v>0.01091802368491895</v>
+        <v>0.009776061255907442</v>
       </c>
       <c r="T25">
-        <v>0.01091802368491895</v>
+        <v>0.008829278374798853</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.2761942472891</v>
+        <v>14.9391485</v>
       </c>
       <c r="H26">
-        <v>14.2761942472891</v>
+        <v>29.878297</v>
       </c>
       <c r="I26">
-        <v>0.2911429519547685</v>
+        <v>0.2579579565172923</v>
       </c>
       <c r="J26">
-        <v>0.2911429519547685</v>
+        <v>0.1881502562153687</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>82.60165915502201</v>
+        <v>83.5363655</v>
       </c>
       <c r="N26">
-        <v>82.60165915502201</v>
+        <v>167.072731</v>
       </c>
       <c r="O26">
-        <v>0.5933984575746277</v>
+        <v>0.5772095936007515</v>
       </c>
       <c r="P26">
-        <v>0.5933984575746277</v>
+        <v>0.4764833079049545</v>
       </c>
       <c r="Q26">
-        <v>1179.23733124546</v>
+        <v>1247.962169354777</v>
       </c>
       <c r="R26">
-        <v>1179.23733124546</v>
+        <v>4991.848677419107</v>
       </c>
       <c r="S26">
-        <v>0.1727637786236836</v>
+        <v>0.1488958072474266</v>
       </c>
       <c r="T26">
-        <v>0.1727637786236836</v>
+        <v>0.08965045646466359</v>
       </c>
     </row>
   </sheetData>
